--- a/Strategies_data.xlsx
+++ b/Strategies_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arek\Desktop\Praca magisterska\Praca magisterska SKRYPTY\Gotowe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arek\Desktop\Investment Strategies — kopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B970A07-A282-4CE9-A67F-035FF3192871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593FD7F2-D61C-4E26-A48F-3AA6BDA36A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Numer</t>
   </si>
@@ -148,13 +148,31 @@
   </si>
   <si>
     <t xml:space="preserve">0.6 </t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +201,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -251,7 +275,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -532,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -605,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -625,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -645,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -665,7 +691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -685,7 +711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -705,7 +731,129 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>